--- a/test_物件管理/0test_契約管理_随時対応_保管場所使用承諾証明書発行.xlsx
+++ b/test_物件管理/0test_契約管理_随時対応_保管場所使用承諾証明書発行.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -13030,7 +13030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -17844,7 +17844,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18114,8 +18114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18168,22 +18168,22 @@
       <c r="F7" s="159"/>
     </row>
     <row r="8" spans="1:10" ht="14.25">
+      <c r="A8" s="164" t="s">
+        <v>18</v>
+      </c>
       <c r="B8" t="s">
         <v>701</v>
       </c>
-      <c r="C8" s="164" t="s">
-        <v>18</v>
-      </c>
       <c r="J8" s="159" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25">
+      <c r="A9" s="164" t="s">
+        <v>18</v>
+      </c>
       <c r="B9" t="s">
         <v>702</v>
-      </c>
-      <c r="C9" s="164" t="s">
-        <v>18</v>
       </c>
       <c r="J9" s="159" t="s">
         <v>801</v>
@@ -18198,15 +18198,15 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25">
-      <c r="A11" s="111" t="s">
-        <v>18</v>
-      </c>
       <c r="B11" t="s">
         <v>709</v>
       </c>
+      <c r="J11" s="111" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="14.25">
-      <c r="A12" s="111" t="s">
+      <c r="J12" s="111" t="s">
         <v>710</v>
       </c>
     </row>
